--- a/artfynd/A 47107-2024 artfynd.xlsx
+++ b/artfynd/A 47107-2024 artfynd.xlsx
@@ -911,7 +911,7 @@
         <v>128821098</v>
       </c>
       <c r="B4" t="n">
-        <v>56742</v>
+        <v>56746</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
